--- a/data/long_dif/P29-Estudios-long_dif.xlsx
+++ b/data/long_dif/P29-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,38%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>44,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,91%</t>
+          <t>31,17%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>35,67%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39,77%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,41; 46,2</t>
+          <t>32,37; 60,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,3; 31,69</t>
+          <t>18,19; 31,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 35,45</t>
+          <t>32,57; 66,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,89; 42,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,29; 38,04</t>
+          <t>22,61; 39,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,87</t>
+          <t>24,81; 36,8</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28,58; 44,84</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29,02; 46,08</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>23,62; 32,54</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33,25; 51,29</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -672,37 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,7%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,43%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,88%</t>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>32,33%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>34,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -715,32 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,92; 55,06</t>
+          <t>19,82; 39,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,03; 54,91</t>
+          <t>34,11; 55,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,07; 46,43</t>
+          <t>23,52; 49,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,58; 40,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,69; 47,81</t>
+          <t>34,05; 52,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,04; 43,9</t>
+          <t>28,98; 41,17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23,88; 40,25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29,83; 43,63</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>33,58; 45,53</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>27,31; 41,52</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -748,37 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,83%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,49%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,52%</t>
+          <t>17,33%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>27,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>33,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>31,49%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,47%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25,29%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,74 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,55; 34,65</t>
+          <t>17,26; 35,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,88; 40,82</t>
+          <t>25,35; 39,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,38; 42,88</t>
+          <t>9,51; 25,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,63; 38,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,49; 36,33</t>
+          <t>20,99; 36,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,23; 36,98</t>
+          <t>28,28; 40,48</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23,5; 41,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 33,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28,47; 38,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,75; 31,48</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,51; 42,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,25; 34,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,42; 37,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,87; 32,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,57; 38,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>35,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>41,21%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>32,73%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>40,52%</t>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34,54%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>30,65%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,72; 40,56</t>
+          <t>28,78; 44,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,66; 46,69</t>
+          <t>24,33; 34,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>34,77; 43,81</t>
+          <t>26,55; 40,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,61; 43,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,07; 40,63</t>
+          <t>28,59; 38,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,32; 43,88</t>
+          <t>24,4; 32,33</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,53; 33,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,55; 39,58</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>25,47; 31,85</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,66; 34,99</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -980,37 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>40,64%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>37,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>39,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41,06%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>40,17%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>40,84%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>24,5; 34,41</t>
+          <t>28,7; 41,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 35,94</t>
+          <t>35,61; 46,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,71; 33,28</t>
+          <t>34,43; 47,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,68; 36,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,65; 32,58</t>
+          <t>33,26; 43,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>27,39; 34,36</t>
+          <t>35,46; 44,19</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>35,25; 46,38</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32,29; 40,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>36,49; 43,56</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 45,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>26,64%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>28,66%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>31,92%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,51%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,32%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>31,16%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>28,51%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,38; 39,65</t>
+          <t>24,61; 35,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,59; 32,65</t>
+          <t>25,19; 35,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,44; 32,54</t>
+          <t>20,97; 33,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,08; 33,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,42; 33,94</t>
+          <t>23,93; 33,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,2; 32,04</t>
+          <t>27,82; 36,14</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25,91; 35,77</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25,69; 32,92</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>27,88; 34,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 32,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>44,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>36,43; 50,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>37,59; 48,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>40,86; 52,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>39,31; 49,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,13; 48,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,76; 47,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>33,78%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>25,62%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>26,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>29,55%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30,99%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>28,25%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,34; 30,85</t>
+          <t>27,56; 40,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,93; 34,64</t>
+          <t>22,08; 32,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,73; 30,66</t>
+          <t>19,98; 31,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>22,65; 30,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>21,87; 28,97</t>
+          <t>23,34; 33,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,73; 31,42</t>
+          <t>25,13; 34,33</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25,84; 35,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26,98; 35,34</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>25,2; 31,6</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24,73; 32,0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>41,64%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>38,5%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>45,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>44,29%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46,52%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>43,81%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>43,68%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>42,64%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>30,93; 38,71</t>
+          <t>35,61; 48,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,67; 31,02</t>
+          <t>37,11; 49,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,59; 32,45</t>
+          <t>31,25; 44,94</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>27,73; 33,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,51; 34,73</t>
+          <t>40,29; 52,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>26,9; 31,2</t>
+          <t>39,25; 49,09</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41,38; 51,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>39,5; 48,75</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>39,75; 47,29</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 46,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1368,37 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>38,42%</t>
+          <t>24,57%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42,13%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>41,61%</t>
+          <t>35,88%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>39,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>25,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>26,16%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>28,07%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>29,25%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>34,57; 43,17</t>
+          <t>18,78; 31,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>38,73; 45,96</t>
+          <t>25,29; 35,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38,43; 45,12</t>
+          <t>29,64; 43,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>36,77; 42,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>37,46; 42,56</t>
+          <t>20,86; 30,67</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>38,57; 43,43</t>
+          <t>21,96; 30,74</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>19,01; 27,44</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>21,33; 29,07</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 31,69</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 34,2</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1444,37 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>30,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>30,14%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +2228,1179 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,78; 30,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>26,93; 33,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>25,76; 32,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>27,56; 32,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,75; 30,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>28,11; 32,35</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>29,91%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>26,23; 42,62</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>18,59; 32,0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 35,31</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>41,36%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>42,08%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>32,15; 52,31</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>35,79; 50,99</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>36,23; 49,03</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>28,01%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>17,2; 32,08</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,2; 38,84</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 33,62</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>35,73%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>30,06%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>29,38%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>32,83%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>28,41%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>31,77%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>31,97; 40,49</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>24,42; 30,88</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>27,64; 38,74</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>27,22; 33,31</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>26,92; 32,0</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>27,85; 34,21</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 35,76</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>26,43; 30,44</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 35,09</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>41,77%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>40,11%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>40,86%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>39,59%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>40,92%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>40,17%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>33,09; 41,67</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>38,46; 45,65</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>34,7; 43,99</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>38,28; 44,76</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>37,27; 43,2</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>37,33; 44,16</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>37,17; 42,03</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>38,8; 43,65</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>37,23; 43,15</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>28,17%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>30,52%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>28,16%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 30,5</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 34,39</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>23,85; 32,37</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 31,51</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>27,68; 33,41</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>25,14; 31,45</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>25,17; 29,66</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>28,55; 32,93</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>25,61; 31,05</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P29-Estudios-long_dif.xlsx
+++ b/data/long_dif/P29-Estudios-long_dif.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -770,7 +770,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -884,7 +884,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1116,7 +1116,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1230,7 +1230,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1462,7 +1462,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1576,7 +1576,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1694,7 +1694,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Más diferencia negativa</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1808,7 +1808,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1922,7 +1922,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Menos Diferencia Positiva</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
